--- a/202107_EXP2/citrate_synthase/results/table2.xlsx
+++ b/202107_EXP2/citrate_synthase/results/table2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/NOPP-gigas-ploidy-temp/202107_EXP2/citrate_synthase/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2147A-2490-C54F-8554-BE72F990F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B4E12-D21B-784D-B649-F0C138BBDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31080" yWindow="-1120" windowWidth="27640" windowHeight="16440" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
+    <workbookView xWindow="-31080" yWindow="-1120" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="9.25.22" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>Df</t>
   </si>
@@ -116,6 +117,93 @@
   </si>
   <si>
     <t>sample_date*calc_dry_weight*date.of.sample</t>
+  </si>
+  <si>
+    <t>Analysis of Variance Table</t>
+  </si>
+  <si>
+    <t>Response: CS_activity</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>trt_list</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Response:</t>
+  </si>
+  <si>
+    <t>CS_activity</t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>not significant</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>Signif.</t>
+  </si>
+  <si>
+    <t>codes:</t>
+  </si>
+  <si>
+    <t>‘***’</t>
+  </si>
+  <si>
+    <t>‘**’</t>
+  </si>
+  <si>
+    <t>‘*’</t>
+  </si>
+  <si>
+    <t>‘.’</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>combined list</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>heat:ploidy</t>
+  </si>
+  <si>
+    <t>TABLE 2</t>
   </si>
 </sst>
 </file>
@@ -159,10 +247,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140A63FA-E1E1-054C-ACA8-F9BBEC6D9511}">
   <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="A4:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,4 +1017,587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37F8534-6B9D-D14D-993D-33002A205F87}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>440.11</v>
+      </c>
+      <c r="D5">
+        <v>88.022000000000006</v>
+      </c>
+      <c r="E5">
+        <v>7.1894</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.703E-5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>710.11</v>
+      </c>
+      <c r="D6">
+        <v>12.243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>19.11</v>
+      </c>
+      <c r="D17">
+        <v>19.105</v>
+      </c>
+      <c r="E17">
+        <v>1.0471999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>1131.1199999999999</v>
+      </c>
+      <c r="D18">
+        <v>18.244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>430.26</v>
+      </c>
+      <c r="D25">
+        <v>86.052000000000007</v>
+      </c>
+      <c r="E25">
+        <v>6.9703999999999997</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.2290000000000002E-5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>30.16</v>
+      </c>
+      <c r="D26">
+        <v>30.161000000000001</v>
+      </c>
+      <c r="E26">
+        <v>2.4430999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.12429999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.9</v>
+      </c>
+      <c r="D27">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E27">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.78859999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>26.85</v>
+      </c>
+      <c r="D28">
+        <v>26.853999999999999</v>
+      </c>
+      <c r="E28">
+        <v>2.1751999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.14649999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>14.06</v>
+      </c>
+      <c r="D29">
+        <v>14.057</v>
+      </c>
+      <c r="E29">
+        <v>1.1387</v>
+      </c>
+      <c r="F29">
+        <v>0.29110000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>14.37</v>
+      </c>
+      <c r="D30">
+        <v>7.1840000000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3.97</v>
+      </c>
+      <c r="D31">
+        <v>3.968</v>
+      </c>
+      <c r="E31">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>617.27</v>
+      </c>
+      <c r="D32">
+        <v>12.345000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34">
+        <v>0.05</v>
+      </c>
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>383.87</v>
+      </c>
+      <c r="D40">
+        <v>191.93700000000001</v>
+      </c>
+      <c r="E40">
+        <v>15.6769</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3.6069999999999999E-6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>21.79</v>
+      </c>
+      <c r="D41">
+        <v>21.789000000000001</v>
+      </c>
+      <c r="E41">
+        <v>1.7797000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.18740000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="D42">
+        <v>17.225000000000001</v>
+      </c>
+      <c r="E42">
+        <v>1.4069</v>
+      </c>
+      <c r="F42">
+        <v>0.25309999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>710.11</v>
+      </c>
+      <c r="D43">
+        <v>12.243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>1E-3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45">
+        <v>0.01</v>
+      </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45">
+        <v>0.1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/202107_EXP2/citrate_synthase/results/table2.xlsx
+++ b/202107_EXP2/citrate_synthase/results/table2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/NOPP-gigas-ploidy-temp/202107_EXP2/citrate_synthase/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B4E12-D21B-784D-B649-F0C138BBDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1DB85-252E-1944-BD2D-CD3AF2072F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31080" yWindow="-1120" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
+    <workbookView xWindow="1220" yWindow="1140" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="9.25.22" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="9.30.22" sheetId="3" r:id="rId2"/>
+    <sheet name="table 2 options" sheetId="2" r:id="rId3"/>
+    <sheet name="supplimentary table 1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="142">
   <si>
     <t>Df</t>
   </si>
@@ -204,6 +206,264 @@
   </si>
   <si>
     <t>TABLE 2</t>
+  </si>
+  <si>
+    <t>Anova</t>
+  </si>
+  <si>
+    <t>(Type</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>tests)</t>
+  </si>
+  <si>
+    <t>ploidy:heat</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>((D-control)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>(D-desiccation))</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>(D-heat))</t>
+  </si>
+  <si>
+    <t>(T-control))</t>
+  </si>
+  <si>
+    <t>(T-desiccation))</t>
+  </si>
+  <si>
+    <t>(T-heat))</t>
+  </si>
+  <si>
+    <t>((D-desiccation)</t>
+  </si>
+  <si>
+    <t>((D-heat)</t>
+  </si>
+  <si>
+    <t>((T-control)</t>
+  </si>
+  <si>
+    <t>((T-desiccation)</t>
+  </si>
+  <si>
+    <t>t.ratio</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>D-control:D-desiccation</t>
+  </si>
+  <si>
+    <t>D-control:D-heat</t>
+  </si>
+  <si>
+    <t>D-control:T-control</t>
+  </si>
+  <si>
+    <t>D-control:T-desiccation</t>
+  </si>
+  <si>
+    <t>D-control:T-heat</t>
+  </si>
+  <si>
+    <t>D-desiccation:D-heat</t>
+  </si>
+  <si>
+    <t>D-desiccation:T-control</t>
+  </si>
+  <si>
+    <t>D-desiccation:T-desiccation</t>
+  </si>
+  <si>
+    <t>D-desiccation:T-heat</t>
+  </si>
+  <si>
+    <t>combined.lsm&lt;-emmeans::emmeans(combinedANOVA,</t>
+  </si>
+  <si>
+    <t>pairwise~trt_list)</t>
+  </si>
+  <si>
+    <t>combined.contrasts&lt;-emmeans::contrast(combined.lsm,</t>
+  </si>
+  <si>
+    <t>eff)</t>
+  </si>
+  <si>
+    <t>combined.contrasts$contrasts</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D-heat:T-control</t>
+  </si>
+  <si>
+    <t>D-heat:T-desiccation</t>
+  </si>
+  <si>
+    <t>D-heat:T-heat</t>
+  </si>
+  <si>
+    <t>T-control:T-desiccation</t>
+  </si>
+  <si>
+    <t>T-control:T-heat</t>
+  </si>
+  <si>
+    <t>T-desiccation:T-heat</t>
+  </si>
+  <si>
+    <t>close but no cigar</t>
+  </si>
+  <si>
+    <t>t-ratio</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>TABLE 1</t>
+  </si>
+  <si>
+    <t>Deviance</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
+  <si>
+    <t>calc_dry_weight</t>
+  </si>
+  <si>
+    <t>LR Chisq</t>
+  </si>
+  <si>
+    <t>trt_list:shell_volume</t>
+  </si>
+  <si>
+    <t>trt_list:shell_length</t>
+  </si>
+  <si>
+    <t>shell_volume:shell_length</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height</t>
+  </si>
+  <si>
+    <t>shell_width:calc_dry_weight</t>
+  </si>
+  <si>
+    <t>shell_height:calc_dry_weight</t>
+  </si>
+  <si>
+    <t>shell_width:ploidy</t>
+  </si>
+  <si>
+    <t>shell_height:ploidy</t>
+  </si>
+  <si>
+    <t>shell_width:heat</t>
+  </si>
+  <si>
+    <t>shell_height:heat</t>
+  </si>
+  <si>
+    <t>shell_width:date</t>
+  </si>
+  <si>
+    <t>shell_height:date</t>
+  </si>
+  <si>
+    <t>calc_dry_weight:date</t>
+  </si>
+  <si>
+    <t>ploidy:date</t>
+  </si>
+  <si>
+    <t>shell_width:tank</t>
+  </si>
+  <si>
+    <t>shell_height:tank</t>
+  </si>
+  <si>
+    <t>trt_list:shell_volume:shell_length</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:calc_dry_weight</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:ploidy</t>
+  </si>
+  <si>
+    <t>shell_width:calc_dry_weight:ploidy</t>
+  </si>
+  <si>
+    <t>shell_height:calc_dry_weight:ploidy</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:heat</t>
+  </si>
+  <si>
+    <t>shell_width:calc_dry_weight:heat</t>
+  </si>
+  <si>
+    <t>shell_height:calc_dry_weight:heat</t>
+  </si>
+  <si>
+    <t>shell_width:ploidy:heat</t>
+  </si>
+  <si>
+    <t>shell_height:ploidy:heat</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:tank</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:calc_dry_weight:ploidy</t>
+  </si>
+  <si>
+    <t>shell_width:shell_height:calc_dry_weight:heat</t>
+  </si>
+  <si>
+    <t>F-stat</t>
   </si>
 </sst>
 </file>
@@ -227,15 +487,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,15 +509,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,16 +1383,780 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3DE2DB-BDF3-9A42-A070-4D79B427F7E3}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>-3.3159999999999998</v>
+      </c>
+      <c r="G2">
+        <v>1.47</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>-2.2490000000000001</v>
+      </c>
+      <c r="J2">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G3">
+        <v>1.42</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="G4">
+        <v>1.31</v>
+      </c>
+      <c r="H4">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <v>-0.316</v>
+      </c>
+      <c r="J4">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-6.3650000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-5.2320000000000002</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>1.141</v>
+      </c>
+      <c r="G6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>1.042</v>
+      </c>
+      <c r="J6">
+        <v>0.41170000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.347</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>-2.6040000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.31</v>
+      </c>
+      <c r="H9">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>-1.9850000000000001</v>
+      </c>
+      <c r="J9">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.9009999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="G11">
+        <v>1.52</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-6.5090000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="H12" s="1">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13">
+        <v>0.996</v>
+      </c>
+      <c r="G13">
+        <v>1.34</v>
+      </c>
+      <c r="H13">
+        <v>58</v>
+      </c>
+      <c r="I13">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-5.5069999999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="H14" s="1">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-3.5760000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="G15">
+        <v>1.45</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>1.383</v>
+      </c>
+      <c r="J15">
+        <v>0.2581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="H16" s="1">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-3.3159999999999998</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1.47</v>
+      </c>
+      <c r="D22" s="15">
+        <v>58</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-2.2490000000000001</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="D23" s="15">
+        <v>58</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="15">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1.31</v>
+      </c>
+      <c r="D24" s="15">
+        <v>58</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-0.316</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>58</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="15">
+        <v>-2.6040000000000001</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1.31</v>
+      </c>
+      <c r="D26" s="15">
+        <v>58</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-1.9850000000000001</v>
+      </c>
+      <c r="F26" s="15">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1.34</v>
+      </c>
+      <c r="D27" s="15">
+        <v>58</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="14">
+        <v>-5.5069999999999997</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1.54</v>
+      </c>
+      <c r="D28" s="14">
+        <v>58</v>
+      </c>
+      <c r="E28" s="14">
+        <v>-3.5760000000000001</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="D29" s="15">
+        <v>58</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1.383</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.2581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="14">
+        <v>7.95</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1.59</v>
+      </c>
+      <c r="D30" s="14">
+        <v>58</v>
+      </c>
+      <c r="E30" s="14">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37F8534-6B9D-D14D-993D-33002A205F87}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +2309,18 @@
         <v>18.244</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1195,21 +2333,75 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +2417,23 @@
       <c r="F24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1.3367</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1248,8 +2455,23 @@
       <c r="G25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1268,8 +2490,23 @@
       <c r="F26">
         <v>0.12429999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.3098000000000001</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1288,8 +2525,23 @@
       <c r="F27">
         <v>0.78859999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1.5657000000000001</v>
+      </c>
+      <c r="J27" s="15">
+        <v>2</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1308,8 +2560,23 @@
       <c r="F28">
         <v>0.14649999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1.3039000000000001</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.2535</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1328,8 +2595,23 @@
       <c r="F29">
         <v>0.29110000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.3584</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.5494</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1348,8 +2630,23 @@
       <c r="F30">
         <v>0.56259999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="15">
+        <v>8.43E-2</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.9587</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1368,8 +2665,25 @@
       <c r="F31">
         <v>0.57330000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="15">
+        <v>25.360299999999999</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16">
+        <v>4.756E-7</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1382,13 +2696,58 @@
       <c r="D32">
         <v>12.345000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33">
+        <v>1E-3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33">
+        <v>0.01</v>
+      </c>
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33">
+        <v>0.05</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33">
+        <v>0.1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1410,29 +2769,8 @@
       <c r="G34">
         <v>0.01</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34">
-        <v>0.05</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>0.1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1446,7 +2784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1454,7 +2792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +2809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +2832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1514,7 +2852,7 @@
         <v>0.18740000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1534,7 +2872,7 @@
         <v>0.25309999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1548,12 +2886,12 @@
         <v>12.243</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1595,6 +2933,986 @@
       </c>
       <c r="N45">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="15">
+        <v>21.79</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1.7797000000000001</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="15">
+        <v>386.56</v>
+      </c>
+      <c r="C52" s="15">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15">
+        <v>15.7865</v>
+      </c>
+      <c r="E52" s="16">
+        <v>3.36E-6</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="15">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="C53" s="15">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1.4069</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="15">
+        <v>710.11</v>
+      </c>
+      <c r="C54" s="15">
+        <v>58</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56">
+        <v>1E-3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56">
+        <v>0.01</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56">
+        <v>0.1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8FAD6F-94DF-6744-83F6-E0E410969239}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>440.11</v>
+      </c>
+      <c r="D5" s="13">
+        <v>88.022000000000006</v>
+      </c>
+      <c r="E5" s="13">
+        <v>22.245999999999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4.3569999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>30.77</v>
+      </c>
+      <c r="D6">
+        <v>30.768000000000001</v>
+      </c>
+      <c r="E6">
+        <v>7.7759</v>
+      </c>
+      <c r="F6">
+        <v>0.10814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.43</v>
+      </c>
+      <c r="D7">
+        <v>0.433</v>
+      </c>
+      <c r="E7">
+        <v>0.1094</v>
+      </c>
+      <c r="F7">
+        <v>0.77227999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>27.25</v>
+      </c>
+      <c r="D8">
+        <v>27.248000000000001</v>
+      </c>
+      <c r="E8">
+        <v>6.8864000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.11969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>12.68</v>
+      </c>
+      <c r="D9">
+        <v>12.680999999999999</v>
+      </c>
+      <c r="E9">
+        <v>3.2048999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.21529999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>14.33</v>
+      </c>
+      <c r="D10">
+        <v>7.1630000000000003</v>
+      </c>
+      <c r="E10">
+        <v>1.8102</v>
+      </c>
+      <c r="F10">
+        <v>0.35585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3.93</v>
+      </c>
+      <c r="D11">
+        <v>3.931</v>
+      </c>
+      <c r="E11">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.42392000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>118.09</v>
+      </c>
+      <c r="D12">
+        <v>23.617999999999999</v>
+      </c>
+      <c r="E12">
+        <v>5.9690000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.14968999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.502</v>
+      </c>
+      <c r="E13">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.97153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.03</v>
+      </c>
+      <c r="D14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.94089999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.61</v>
+      </c>
+      <c r="D15">
+        <v>1.611</v>
+      </c>
+      <c r="E15">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.58877999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D16" s="13">
+        <v>80.402000000000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>20.32</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4.5850000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.04</v>
+      </c>
+      <c r="D17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.11E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.92578000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D18">
+        <v>19.353000000000002</v>
+      </c>
+      <c r="E18">
+        <v>4.8912000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.15751999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2.89</v>
+      </c>
+      <c r="D19">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.48307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>5.63</v>
+      </c>
+      <c r="D20">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="F20">
+        <v>0.58436999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>23.55</v>
+      </c>
+      <c r="D21">
+        <v>11.775</v>
+      </c>
+      <c r="E21">
+        <v>2.976</v>
+      </c>
+      <c r="F21">
+        <v>0.25151000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="D22">
+        <v>10.218999999999999</v>
+      </c>
+      <c r="E22">
+        <v>2.5828000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.27911000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>12.25</v>
+      </c>
+      <c r="D23">
+        <v>6.1239999999999997</v>
+      </c>
+      <c r="E23">
+        <v>1.5478000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.39249000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.1404</v>
+      </c>
+      <c r="F24">
+        <v>0.74390999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>55.76</v>
+      </c>
+      <c r="D25">
+        <v>55.761000000000003</v>
+      </c>
+      <c r="E25">
+        <v>14.092599999999999</v>
+      </c>
+      <c r="F25">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6.04</v>
+      </c>
+      <c r="D26">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="E26">
+        <v>1.5266999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.34205000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="D27">
+        <v>16.648</v>
+      </c>
+      <c r="E27">
+        <v>4.2073999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.17671000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>57.31</v>
+      </c>
+      <c r="D28">
+        <v>11.461</v>
+      </c>
+      <c r="E28">
+        <v>2.8965999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.27631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5.51</v>
+      </c>
+      <c r="D29">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="E29">
+        <v>1.3934</v>
+      </c>
+      <c r="F29">
+        <v>0.35920000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>8.86</v>
+      </c>
+      <c r="D30">
+        <v>8.8640000000000008</v>
+      </c>
+      <c r="E30">
+        <v>2.2401</v>
+      </c>
+      <c r="F30">
+        <v>0.27313999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>25.94</v>
+      </c>
+      <c r="D31">
+        <v>25.94</v>
+      </c>
+      <c r="E31">
+        <v>6.5559000000000003</v>
+      </c>
+      <c r="F31">
+        <v>0.12465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="D32">
+        <v>32.594000000000001</v>
+      </c>
+      <c r="E32">
+        <v>8.2376000000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.10298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>12.38</v>
+      </c>
+      <c r="D33">
+        <v>6.19</v>
+      </c>
+      <c r="E33">
+        <v>1.5643</v>
+      </c>
+      <c r="F33">
+        <v>0.38996999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>12.38</v>
+      </c>
+      <c r="D34">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="E34">
+        <v>1.5648</v>
+      </c>
+      <c r="F34">
+        <v>0.38990000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10.15</v>
+      </c>
+      <c r="D35">
+        <v>5.0759999999999996</v>
+      </c>
+      <c r="E35">
+        <v>1.2828999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.43802999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>21.16</v>
+      </c>
+      <c r="D36">
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E36">
+        <v>5.3468</v>
+      </c>
+      <c r="F36">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>7.66</v>
+      </c>
+      <c r="D37">
+        <v>7.665</v>
+      </c>
+      <c r="E37">
+        <v>1.9372</v>
+      </c>
+      <c r="F37">
+        <v>0.29855999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>27.73</v>
+      </c>
+      <c r="D38">
+        <v>27.731000000000002</v>
+      </c>
+      <c r="E38">
+        <v>7.0084999999999997</v>
+      </c>
+      <c r="F38">
+        <v>0.11796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="D39">
+        <v>17.765000000000001</v>
+      </c>
+      <c r="E39">
+        <v>4.4897999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.16824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>7.57</v>
+      </c>
+      <c r="D40">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.51107000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>7.91</v>
+      </c>
+      <c r="D41">
+        <v>3.9569999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/202107_EXP2/citrate_synthase/results/table2.xlsx
+++ b/202107_EXP2/citrate_synthase/results/table2.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/NOPP-gigas-ploidy-temp/202107_EXP2/citrate_synthase/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B4E12-D21B-784D-B649-F0C138BBDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2147A-2490-C54F-8554-BE72F990F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31080" yWindow="-1120" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
+    <workbookView xWindow="-31080" yWindow="-1120" windowWidth="27640" windowHeight="16440" xr2:uid="{642EE3DE-8661-8243-9FBD-2B10522B0AFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="9.25.22" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Df</t>
   </si>
@@ -117,93 +116,6 @@
   </si>
   <si>
     <t>sample_date*calc_dry_weight*date.of.sample</t>
-  </si>
-  <si>
-    <t>Analysis of Variance Table</t>
-  </si>
-  <si>
-    <t>Response: CS_activity</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
-  </si>
-  <si>
-    <t>trt_list</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Response:</t>
-  </si>
-  <si>
-    <t>CS_activity</t>
-  </si>
-  <si>
-    <t>ploidy</t>
-  </si>
-  <si>
-    <t>not significant</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>tank</t>
-  </si>
-  <si>
-    <t>Signif.</t>
-  </si>
-  <si>
-    <t>codes:</t>
-  </si>
-  <si>
-    <t>‘***’</t>
-  </si>
-  <si>
-    <t>‘**’</t>
-  </si>
-  <si>
-    <t>‘*’</t>
-  </si>
-  <si>
-    <t>‘.’</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>combined list</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>heat:ploidy</t>
-  </si>
-  <si>
-    <t>TABLE 2</t>
   </si>
 </sst>
 </file>
@@ -247,11 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140A63FA-E1E1-054C-ACA8-F9BBEC6D9511}">
   <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="A4:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,587 +928,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37F8534-6B9D-D14D-993D-33002A205F87}">
-  <dimension ref="A1:N45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>440.11</v>
-      </c>
-      <c r="D5">
-        <v>88.022000000000006</v>
-      </c>
-      <c r="E5">
-        <v>7.1894</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.703E-5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>710.11</v>
-      </c>
-      <c r="D6">
-        <v>12.243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>19.11</v>
-      </c>
-      <c r="D17">
-        <v>19.105</v>
-      </c>
-      <c r="E17">
-        <v>1.0471999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.31009999999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>62</v>
-      </c>
-      <c r="C18">
-        <v>1131.1199999999999</v>
-      </c>
-      <c r="D18">
-        <v>18.244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>430.26</v>
-      </c>
-      <c r="D25">
-        <v>86.052000000000007</v>
-      </c>
-      <c r="E25">
-        <v>6.9703999999999997</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5.2290000000000002E-5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>30.16</v>
-      </c>
-      <c r="D26">
-        <v>30.161000000000001</v>
-      </c>
-      <c r="E26">
-        <v>2.4430999999999998</v>
-      </c>
-      <c r="F26">
-        <v>0.12429999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0.9</v>
-      </c>
-      <c r="D27">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E27">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.78859999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>26.85</v>
-      </c>
-      <c r="D28">
-        <v>26.853999999999999</v>
-      </c>
-      <c r="E28">
-        <v>2.1751999999999998</v>
-      </c>
-      <c r="F28">
-        <v>0.14649999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>14.06</v>
-      </c>
-      <c r="D29">
-        <v>14.057</v>
-      </c>
-      <c r="E29">
-        <v>1.1387</v>
-      </c>
-      <c r="F29">
-        <v>0.29110000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>14.37</v>
-      </c>
-      <c r="D30">
-        <v>7.1840000000000002</v>
-      </c>
-      <c r="E30">
-        <v>0.58189999999999997</v>
-      </c>
-      <c r="F30">
-        <v>0.56259999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>3.97</v>
-      </c>
-      <c r="D31">
-        <v>3.968</v>
-      </c>
-      <c r="E31">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.57330000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>617.27</v>
-      </c>
-      <c r="D32">
-        <v>12.345000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34">
-        <v>0.01</v>
-      </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34">
-        <v>0.05</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>0.1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>383.87</v>
-      </c>
-      <c r="D40">
-        <v>191.93700000000001</v>
-      </c>
-      <c r="E40">
-        <v>15.6769</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3.6069999999999999E-6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>21.79</v>
-      </c>
-      <c r="D41">
-        <v>21.789000000000001</v>
-      </c>
-      <c r="E41">
-        <v>1.7797000000000001</v>
-      </c>
-      <c r="F41">
-        <v>0.18740000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="D42">
-        <v>17.225000000000001</v>
-      </c>
-      <c r="E42">
-        <v>1.4069</v>
-      </c>
-      <c r="F42">
-        <v>0.25309999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>58</v>
-      </c>
-      <c r="C43">
-        <v>710.11</v>
-      </c>
-      <c r="D43">
-        <v>12.243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
-        <v>1E-3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45">
-        <v>0.01</v>
-      </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45">
-        <v>0.05</v>
-      </c>
-      <c r="J45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45">
-        <v>0.1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>50</v>
-      </c>
-      <c r="M45" t="s">
-        <v>51</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>